--- a/tests/DATA/RESTD AllState.xlsx
+++ b/tests/DATA/RESTD AllState.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F589E21-7BD0-449C-A27A-E3F331AB022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D11EDB-52FE-4C13-90A0-CB1DB9BA063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,9 +269,6 @@
     <t>Corn Test</t>
   </si>
   <si>
-    <t>123 hawai hi</t>
-  </si>
-  <si>
     <t>52532</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>Gem Test</t>
   </si>
   <si>
-    <t>123 Iowa IA</t>
-  </si>
-  <si>
     <t>52533</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Prairie Test</t>
   </si>
   <si>
-    <t>123 Idaho ID</t>
-  </si>
-  <si>
     <t>$ 4,000,000 / $ 4,000,000</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
     <t>Hoosier Test</t>
   </si>
   <si>
-    <t>123 Illinois IL</t>
-  </si>
-  <si>
     <t>52535</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>Sunflower Test</t>
   </si>
   <si>
-    <t>123 Indiana IN</t>
-  </si>
-  <si>
     <t>52536</t>
   </si>
   <si>
@@ -332,9 +317,6 @@
     <t>Bluegrass Test</t>
   </si>
   <si>
-    <t>123 Kansas KS</t>
-  </si>
-  <si>
     <t>52537</t>
   </si>
   <si>
@@ -344,9 +326,6 @@
     <t>Chesapeake Test</t>
   </si>
   <si>
-    <t>123 Massachusetts MA</t>
-  </si>
-  <si>
     <t>52540</t>
   </si>
   <si>
@@ -359,9 +338,6 @@
     <t>Pine Test</t>
   </si>
   <si>
-    <t>123 Maryland MD</t>
-  </si>
-  <si>
     <t>52541</t>
   </si>
   <si>
@@ -374,9 +350,6 @@
     <t>GreatLake Test</t>
   </si>
   <si>
-    <t>123 Maine ME</t>
-  </si>
-  <si>
     <t>52542</t>
   </si>
   <si>
@@ -398,9 +371,6 @@
     <t>ShowMe Test</t>
   </si>
   <si>
-    <t>123 Minnesota MN</t>
-  </si>
-  <si>
     <t>52544</t>
   </si>
   <si>
@@ -422,9 +392,6 @@
     <t>BigSky Test</t>
   </si>
   <si>
-    <t>123 Mississippi MS</t>
-  </si>
-  <si>
     <t>52546</t>
   </si>
   <si>
@@ -434,9 +401,6 @@
     <t>TarHeel Test</t>
   </si>
   <si>
-    <t>123 Montana MT</t>
-  </si>
-  <si>
     <t>$ 1,000,000 / $ 1,000,000</t>
   </si>
   <si>
@@ -449,9 +413,6 @@
     <t>Plains Test</t>
   </si>
   <si>
-    <t>123 North Dakota ND</t>
-  </si>
-  <si>
     <t>52549</t>
   </si>
   <si>
@@ -461,9 +422,6 @@
     <t>Granite Test</t>
   </si>
   <si>
-    <t>123 Nebraska NE</t>
-  </si>
-  <si>
     <t>52550</t>
   </si>
   <si>
@@ -476,9 +434,6 @@
     <t>Garden Test</t>
   </si>
   <si>
-    <t>123 New Hampshire NH</t>
-  </si>
-  <si>
     <t>52551</t>
   </si>
   <si>
@@ -488,9 +443,6 @@
     <t>Vegas Test</t>
   </si>
   <si>
-    <t>123 New Mexico NM</t>
-  </si>
-  <si>
     <t>$,1000</t>
   </si>
   <si>
@@ -506,9 +458,6 @@
     <t>Empire Test</t>
   </si>
   <si>
-    <t>123 Nevada NV</t>
-  </si>
-  <si>
     <t>52554</t>
   </si>
   <si>
@@ -518,9 +467,6 @@
     <t>Buckeye Test</t>
   </si>
   <si>
-    <t>123 New York NY</t>
-  </si>
-  <si>
     <t>52555</t>
   </si>
   <si>
@@ -533,9 +479,6 @@
     <t>Sooner Test</t>
   </si>
   <si>
-    <t>123 Ohio OH</t>
-  </si>
-  <si>
     <t>52556</t>
   </si>
   <si>
@@ -545,9 +488,6 @@
     <t>Beaver Test</t>
   </si>
   <si>
-    <t>123 Oklahoma OK</t>
-  </si>
-  <si>
     <t>52557</t>
   </si>
   <si>
@@ -569,9 +509,6 @@
     <t>Ocean Test</t>
   </si>
   <si>
-    <t>123 Pennsylvania PA</t>
-  </si>
-  <si>
     <t>52559</t>
   </si>
   <si>
@@ -593,9 +530,6 @@
     <t>Rushmore Test</t>
   </si>
   <si>
-    <t>123 South Carolina SC</t>
-  </si>
-  <si>
     <t>52561</t>
   </si>
   <si>
@@ -605,9 +539,6 @@
     <t>Volunteer Test</t>
   </si>
   <si>
-    <t>123 South Dakota SD</t>
-  </si>
-  <si>
     <t>52562</t>
   </si>
   <si>
@@ -617,9 +548,6 @@
     <t>LoneStar Test</t>
   </si>
   <si>
-    <t>123 Tennessee TN</t>
-  </si>
-  <si>
     <t>52563</t>
   </si>
   <si>
@@ -629,9 +557,6 @@
     <t>Beehive Test</t>
   </si>
   <si>
-    <t>123 Texas TX</t>
-  </si>
-  <si>
     <t>52564</t>
   </si>
   <si>
@@ -641,9 +566,6 @@
     <t>Virginia Test</t>
   </si>
   <si>
-    <t>123 Utah UT</t>
-  </si>
-  <si>
     <t>52565</t>
   </si>
   <si>
@@ -653,9 +575,6 @@
     <t>Maple Test</t>
   </si>
   <si>
-    <t>123 Virginia VA</t>
-  </si>
-  <si>
     <t>52566</t>
   </si>
   <si>
@@ -665,9 +584,6 @@
     <t>Evergreen Test</t>
   </si>
   <si>
-    <t>123 Vermont VT</t>
-  </si>
-  <si>
     <t>52567</t>
   </si>
   <si>
@@ -677,9 +593,6 @@
     <t>Badger Test</t>
   </si>
   <si>
-    <t>123 Washington WA</t>
-  </si>
-  <si>
     <t>52568</t>
   </si>
   <si>
@@ -689,9 +602,6 @@
     <t>Mountain Test</t>
   </si>
   <si>
-    <t>123 Wisconsin WI</t>
-  </si>
-  <si>
     <t>52569</t>
   </si>
   <si>
@@ -776,10 +686,100 @@
     <t>123 wyoming wy usa wy</t>
   </si>
   <si>
-    <t>123 connecticut ct usa ct</t>
-  </si>
-  <si>
-    <t>123 Delaware DE usa de</t>
+    <t>123 Connecticut CT usa</t>
+  </si>
+  <si>
+    <t>123 Delaware DE usa</t>
+  </si>
+  <si>
+    <t>123 hawai hi usa</t>
+  </si>
+  <si>
+    <t>123 Iowa IA usa</t>
+  </si>
+  <si>
+    <t>123 Idaho ID usa</t>
+  </si>
+  <si>
+    <t>123 Illinois IL usa</t>
+  </si>
+  <si>
+    <t>123 Indiana IN usa</t>
+  </si>
+  <si>
+    <t>123 Kansas KS usa</t>
+  </si>
+  <si>
+    <t>123 Massachusetts MA usa</t>
+  </si>
+  <si>
+    <t>123 Maryland MD usa</t>
+  </si>
+  <si>
+    <t>123 Maine ME usa</t>
+  </si>
+  <si>
+    <t>123 Minnesota MN usa</t>
+  </si>
+  <si>
+    <t>123 Mississippi MS usa</t>
+  </si>
+  <si>
+    <t>123 Montana MT usa</t>
+  </si>
+  <si>
+    <t>123 North Dakota ND usa</t>
+  </si>
+  <si>
+    <t>123 Nebraska NE usa</t>
+  </si>
+  <si>
+    <t>123 New Hampshire NH usa</t>
+  </si>
+  <si>
+    <t>123 New Mexico NM usa</t>
+  </si>
+  <si>
+    <t>123 Nevada NV usa</t>
+  </si>
+  <si>
+    <t>123 New York NY usa</t>
+  </si>
+  <si>
+    <t>123 Ohio OH usa</t>
+  </si>
+  <si>
+    <t>123 Oklahoma OK usa</t>
+  </si>
+  <si>
+    <t>123 Pennsylvania PA usa</t>
+  </si>
+  <si>
+    <t>123 South Carolina SC usa</t>
+  </si>
+  <si>
+    <t>123 South Dakota SD usa</t>
+  </si>
+  <si>
+    <t>123 Tennessee TN usa</t>
+  </si>
+  <si>
+    <t>123 Texas TX usa</t>
+  </si>
+  <si>
+    <t>123 Utah UT usa</t>
+  </si>
+  <si>
+    <t>123 Virginia VA usa</t>
+  </si>
+  <si>
+    <t>123 Vermont VT usa</t>
+  </si>
+  <si>
+    <t>123 Washington WA usa</t>
+  </si>
+  <si>
+    <t>123 Wisconsin WI usa</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:AU42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1273,7 @@
     <col min="7" max="8" width="8.88671875" style="9"/>
     <col min="9" max="9" width="15.44140625" style="9" customWidth="1"/>
     <col min="10" max="15" width="8.88671875" style="9"/>
-    <col min="16" max="16" width="19.21875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="24" width="8.88671875" style="9"/>
     <col min="25" max="25" width="25.44140625" style="9" customWidth="1"/>
     <col min="26" max="36" width="8.88671875" style="9"/>
@@ -1669,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1746,7 +1746,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1900,7 +1900,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1942,7 +1942,7 @@
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
       <c r="AN8" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU8" s="27" t="s">
         <v>79</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>41</v>
@@ -1962,7 +1962,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="11">
         <v>46027</v>
@@ -1977,7 +1977,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -2019,15 +2019,15 @@
       <c r="AL9" s="21"/>
       <c r="AM9" s="21"/>
       <c r="AN9" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AU9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>41</v>
@@ -2039,7 +2039,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="28">
         <v>46027</v>
@@ -2054,7 +2054,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -2082,7 +2082,7 @@
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
       <c r="AH10" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI10" s="20" t="s">
         <v>53</v>
@@ -2096,15 +2096,15 @@
       <c r="AL10" s="21"/>
       <c r="AM10" s="21"/>
       <c r="AN10" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AU10" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>41</v>
@@ -2116,7 +2116,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F11" s="11">
         <v>46027</v>
@@ -2131,7 +2131,7 @@
         <v>46</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -2173,15 +2173,15 @@
       <c r="AL11" s="21"/>
       <c r="AM11" s="21"/>
       <c r="AN11" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AU11" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>41</v>
@@ -2193,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="28">
         <v>46027</v>
@@ -2208,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2250,15 +2250,15 @@
       <c r="AL12" s="21"/>
       <c r="AM12" s="21"/>
       <c r="AN12" s="22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AU12" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>41</v>
@@ -2270,7 +2270,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F13" s="11">
         <v>46027</v>
@@ -2285,7 +2285,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -2327,15 +2327,15 @@
       <c r="AL13" s="21"/>
       <c r="AM13" s="21"/>
       <c r="AN13" s="22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AU13" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>41</v>
@@ -2347,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F14" s="28">
         <v>46027</v>
@@ -2362,7 +2362,7 @@
         <v>46</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2404,15 +2404,15 @@
       <c r="AL14" s="21"/>
       <c r="AM14" s="21"/>
       <c r="AN14" s="22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AU14" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>41</v>
@@ -2424,7 +2424,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F15" s="11">
         <v>46027</v>
@@ -2439,7 +2439,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -2481,15 +2481,15 @@
       <c r="AL15" s="21"/>
       <c r="AM15" s="21"/>
       <c r="AN15" s="22" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AU15" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>41</v>
@@ -2501,7 +2501,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F16" s="28">
         <v>46027</v>
@@ -2516,7 +2516,7 @@
         <v>46</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -2544,7 +2544,7 @@
       <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
       <c r="AH16" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI16" s="20" t="s">
         <v>53</v>
@@ -2558,15 +2558,15 @@
       <c r="AL16" s="21"/>
       <c r="AM16" s="21"/>
       <c r="AN16" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AU16" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>41</v>
@@ -2578,7 +2578,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F17" s="11">
         <v>46027</v>
@@ -2593,7 +2593,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -2635,15 +2635,15 @@
       <c r="AL17" s="21"/>
       <c r="AM17" s="21"/>
       <c r="AN17" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AU17" s="23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>41</v>
@@ -2655,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F18" s="28">
         <v>46027</v>
@@ -2670,7 +2670,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2712,15 +2712,15 @@
       <c r="AL18" s="21"/>
       <c r="AM18" s="21"/>
       <c r="AN18" s="22" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AU18" s="27" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>41</v>
@@ -2732,7 +2732,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F19" s="11">
         <v>46027</v>
@@ -2747,7 +2747,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2789,15 +2789,15 @@
       <c r="AL19" s="21"/>
       <c r="AM19" s="21"/>
       <c r="AN19" s="22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AU19" s="23" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>41</v>
@@ -2809,7 +2809,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F20" s="28">
         <v>46027</v>
@@ -2824,7 +2824,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2852,7 +2852,7 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI20" s="20" t="s">
         <v>53</v>
@@ -2866,15 +2866,15 @@
       <c r="AL20" s="21"/>
       <c r="AM20" s="21"/>
       <c r="AN20" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AU20" s="27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>41</v>
@@ -2886,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F21" s="11">
         <v>46027</v>
@@ -2901,7 +2901,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2929,7 +2929,7 @@
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="20" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI21" s="20" t="s">
         <v>53</v>
@@ -2943,15 +2943,15 @@
       <c r="AL21" s="21"/>
       <c r="AM21" s="21"/>
       <c r="AN21" s="22" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AU21" s="23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>41</v>
@@ -2963,7 +2963,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F22" s="11">
         <v>46027</v>
@@ -2978,7 +2978,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -3006,7 +3006,7 @@
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="20" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI22" s="20" t="s">
         <v>53</v>
@@ -3020,15 +3020,15 @@
       <c r="AL22" s="21"/>
       <c r="AM22" s="21"/>
       <c r="AN22" s="22" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AU22" s="23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>41</v>
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F23" s="28">
         <v>46027</v>
@@ -3055,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -3083,7 +3083,7 @@
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI23" s="20" t="s">
         <v>53</v>
@@ -3097,15 +3097,15 @@
       <c r="AL23" s="21"/>
       <c r="AM23" s="21"/>
       <c r="AN23" s="22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AU23" s="27" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>41</v>
@@ -3117,7 +3117,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F24" s="11">
         <v>46027</v>
@@ -3132,7 +3132,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -3174,15 +3174,15 @@
       <c r="AL24" s="21"/>
       <c r="AM24" s="21"/>
       <c r="AN24" s="22" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="AU24" s="23" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>41</v>
@@ -3194,7 +3194,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F25" s="11">
         <v>46027</v>
@@ -3209,7 +3209,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3240,26 +3240,26 @@
         <v>52</v>
       </c>
       <c r="AI25" s="29" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AJ25" s="21" t="s">
         <v>65</v>
       </c>
       <c r="AK25" s="21" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AL25" s="21"/>
       <c r="AM25" s="21"/>
       <c r="AN25" s="22" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AU25" s="27" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>41</v>
@@ -3271,7 +3271,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F26" s="28">
         <v>46027</v>
@@ -3286,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3314,7 +3314,7 @@
       <c r="AF26" s="26"/>
       <c r="AG26" s="26"/>
       <c r="AH26" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI26" s="20" t="s">
         <v>53</v>
@@ -3328,15 +3328,15 @@
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
       <c r="AN26" s="22" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AU26" s="23" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>41</v>
@@ -3348,7 +3348,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F27" s="11">
         <v>46027</v>
@@ -3363,7 +3363,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3405,15 +3405,15 @@
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
       <c r="AN27" s="22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="AU27" s="27" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>41</v>
@@ -3425,7 +3425,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F28" s="28">
         <v>46027</v>
@@ -3440,7 +3440,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3482,15 +3482,15 @@
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="22" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="AU28" s="23" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>41</v>
@@ -3502,7 +3502,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F29" s="11">
         <v>46027</v>
@@ -3517,7 +3517,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3559,15 +3559,15 @@
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="22" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AU29" s="27" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>41</v>
@@ -3579,7 +3579,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F30" s="28">
         <v>46027</v>
@@ -3594,7 +3594,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3622,7 +3622,7 @@
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
       <c r="AH30" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI30" s="20" t="s">
         <v>53</v>
@@ -3636,15 +3636,15 @@
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="22" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AU30" s="23" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>41</v>
@@ -3656,7 +3656,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="F31" s="11">
         <v>46027</v>
@@ -3671,7 +3671,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3713,15 +3713,15 @@
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="22" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="AU31" s="27" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>41</v>
@@ -3733,7 +3733,7 @@
         <v>43</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F32" s="28">
         <v>46027</v>
@@ -3748,7 +3748,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3790,15 +3790,15 @@
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="22" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AU32" s="23" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>41</v>
@@ -3810,7 +3810,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F33" s="11">
         <v>46027</v>
@@ -3825,7 +3825,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3867,15 +3867,15 @@
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="22" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="AU33" s="27" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>41</v>
@@ -3887,7 +3887,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F34" s="28">
         <v>46027</v>
@@ -3902,7 +3902,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3930,7 +3930,7 @@
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI34" s="20" t="s">
         <v>53</v>
@@ -3944,15 +3944,15 @@
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="22" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="AU34" s="23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>41</v>
@@ -3964,7 +3964,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F35" s="11">
         <v>46027</v>
@@ -3979,7 +3979,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4021,15 +4021,15 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="22" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="AU35" s="27" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>41</v>
@@ -4041,7 +4041,7 @@
         <v>43</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="F36" s="28">
         <v>46027</v>
@@ -4056,7 +4056,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4098,15 +4098,15 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="22" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AU36" s="23" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>41</v>
@@ -4118,7 +4118,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F37" s="11">
         <v>46027</v>
@@ -4133,7 +4133,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -4175,15 +4175,15 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="22" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="AU37" s="27" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>41</v>
@@ -4195,7 +4195,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="F38" s="28">
         <v>46027</v>
@@ -4210,7 +4210,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4238,7 +4238,7 @@
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
       <c r="AH38" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI38" s="20" t="s">
         <v>53</v>
@@ -4252,15 +4252,15 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="22" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="AU38" s="23" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>41</v>
@@ -4272,7 +4272,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="F39" s="11">
         <v>46027</v>
@@ -4287,7 +4287,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -4329,15 +4329,15 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
       <c r="AN39" s="22" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AU39" s="27" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>41</v>
@@ -4349,7 +4349,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="F40" s="28">
         <v>46027</v>
@@ -4364,7 +4364,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -4406,15 +4406,15 @@
       <c r="AL40" s="21"/>
       <c r="AM40" s="21"/>
       <c r="AN40" s="22" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="AU40" s="23" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>41</v>
@@ -4426,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="F41" s="11">
         <v>46027</v>
@@ -4441,7 +4441,7 @@
         <v>46</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
@@ -4483,15 +4483,15 @@
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
       <c r="AN41" s="22" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AU41" s="27" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>41</v>
@@ -4503,7 +4503,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F42" s="28">
         <v>46027</v>
@@ -4518,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="Q42" s="30"/>
       <c r="R42" s="30"/>
@@ -4527,7 +4527,7 @@
       <c r="U42" s="30"/>
       <c r="V42" s="30"/>
       <c r="W42" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17" t="s">
@@ -4538,15 +4538,15 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="18" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AE42" s="18" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
       <c r="AH42" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AI42" s="20" t="s">
         <v>53</v>
@@ -4560,10 +4560,10 @@
       <c r="AL42" s="31"/>
       <c r="AM42" s="31"/>
       <c r="AN42" s="22" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AU42" s="23" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>41</v>
@@ -4722,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="F2" s="11">
         <v>46027</v>
@@ -4743,7 +4743,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4785,7 +4785,7 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="22" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>41</v>
@@ -4943,7 +4943,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="F2" s="11">
         <v>46031</v>
@@ -4964,7 +4964,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="23" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4973,7 +4973,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="17" t="s">
@@ -4984,10 +4984,10 @@
       <c r="AB2" s="17"/>
       <c r="AC2" s="17"/>
       <c r="AD2" s="18" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AF2" s="26"/>
       <c r="AG2" s="26"/>
@@ -4998,7 +4998,7 @@
         <v>53</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>55</v>
@@ -5006,12 +5006,12 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="22" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>41</v>
@@ -5023,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="F3" s="11">
         <v>46031</v>
@@ -5044,7 +5044,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="23" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -5053,7 +5053,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="17" t="s">
@@ -5064,10 +5064,10 @@
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="18" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AF3" s="26"/>
       <c r="AG3" s="26"/>
@@ -5086,12 +5086,12 @@
       <c r="AL3" s="21"/>
       <c r="AM3" s="21"/>
       <c r="AN3" s="22" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>41</v>
@@ -5103,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F4" s="11">
         <v>46031</v>
@@ -5124,7 +5124,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="23" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -5133,7 +5133,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="17" t="s">
@@ -5144,10 +5144,10 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="18" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
@@ -5166,12 +5166,12 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="22" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>41</v>
@@ -5183,7 +5183,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="F5" s="11">
         <v>46031</v>
@@ -5204,7 +5204,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -5213,7 +5213,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="17" t="s">
@@ -5224,10 +5224,10 @@
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="18" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="AF5" s="26"/>
       <c r="AG5" s="26"/>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>41</v>
@@ -5263,7 +5263,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F6" s="11">
         <v>46031</v>
@@ -5284,7 +5284,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -5293,7 +5293,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="15" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="17" t="s">
@@ -5304,10 +5304,10 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="18" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="AF6" s="26"/>
       <c r="AG6" s="26"/>

--- a/tests/DATA/RESTD AllState.xlsx
+++ b/tests/DATA/RESTD AllState.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D11EDB-52FE-4C13-90A0-CB1DB9BA063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A588CC4-1C78-4BA5-B280-1CF39D2E672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESDT" sheetId="1" r:id="rId1"/>
     <sheet name="NC State" sheetId="2" r:id="rId2"/>
     <sheet name="Tax State" sheetId="3" r:id="rId3"/>
+    <sheet name="ISSUE STATE" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="254">
   <si>
     <t>State</t>
   </si>
@@ -780,6 +781,15 @@
   </si>
   <si>
     <t>123 Wisconsin WI usa</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>White Test</t>
+  </si>
+  <si>
+    <t>123 Colorado CO usa</t>
   </si>
 </sst>
 </file>
@@ -925,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -978,6 +988,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1258,11 +1295,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU42"/>
+  <dimension ref="A1:AU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2643,7 +2678,7 @@
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>41</v>
@@ -2654,10 +2689,10 @@
       <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="28">
+      <c r="E18" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="11">
         <v>46027</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -2670,7 +2705,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2712,15 +2747,15 @@
       <c r="AL18" s="21"/>
       <c r="AM18" s="21"/>
       <c r="AN18" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU18" s="27" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="AU18" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>41</v>
@@ -2731,10 +2766,10 @@
       <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="28">
         <v>46027</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -2747,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2775,7 +2810,7 @@
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI19" s="20" t="s">
         <v>53</v>
@@ -2789,15 +2824,15 @@
       <c r="AL19" s="21"/>
       <c r="AM19" s="21"/>
       <c r="AN19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU19" s="23" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="AU19" s="27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>41</v>
@@ -2808,10 +2843,10 @@
       <c r="D20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="28">
+      <c r="E20" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="11">
         <v>46027</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -2824,7 +2859,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2852,13 +2887,13 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="20" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="AI20" s="20" t="s">
         <v>53</v>
       </c>
       <c r="AJ20" s="21" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AK20" s="21" t="s">
         <v>55</v>
@@ -2866,15 +2901,15 @@
       <c r="AL20" s="21"/>
       <c r="AM20" s="21"/>
       <c r="AN20" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU20" s="27" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="AU20" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>41</v>
@@ -2886,7 +2921,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F21" s="11">
         <v>46027</v>
@@ -2901,7 +2936,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2935,7 +2970,7 @@
         <v>53</v>
       </c>
       <c r="AJ21" s="21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AK21" s="21" t="s">
         <v>55</v>
@@ -2943,15 +2978,15 @@
       <c r="AL21" s="21"/>
       <c r="AM21" s="21"/>
       <c r="AN21" s="22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AU21" s="23" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>41</v>
@@ -2962,10 +2997,10 @@
       <c r="D22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="E22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="28">
         <v>46027</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -2978,7 +3013,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -3006,7 +3041,7 @@
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="20" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="AI22" s="20" t="s">
         <v>53</v>
@@ -3020,15 +3055,15 @@
       <c r="AL22" s="21"/>
       <c r="AM22" s="21"/>
       <c r="AN22" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU22" s="23" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="AU22" s="27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>41</v>
@@ -3039,10 +3074,10 @@
       <c r="D23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="28">
+      <c r="E23" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="11">
         <v>46027</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -3055,7 +3090,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -3083,7 +3118,7 @@
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI23" s="20" t="s">
         <v>53</v>
@@ -3097,15 +3132,15 @@
       <c r="AL23" s="21"/>
       <c r="AM23" s="21"/>
       <c r="AN23" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU23" s="27" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AU23" s="23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>41</v>
@@ -3117,7 +3152,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F24" s="11">
         <v>46027</v>
@@ -3132,7 +3167,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -3162,27 +3197,27 @@
       <c r="AH24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AI24" s="20" t="s">
-        <v>53</v>
+      <c r="AI24" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="AJ24" s="21" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AK24" s="21" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="AL24" s="21"/>
       <c r="AM24" s="21"/>
       <c r="AN24" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU24" s="23" t="s">
-        <v>127</v>
+        <v>140</v>
+      </c>
+      <c r="AU24" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>41</v>
@@ -3193,10 +3228,10 @@
       <c r="D25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="28">
         <v>46027</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -3209,7 +3244,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3237,29 +3272,29 @@
       <c r="AF25" s="26"/>
       <c r="AG25" s="26"/>
       <c r="AH25" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI25" s="29" t="s">
-        <v>138</v>
+        <v>86</v>
+      </c>
+      <c r="AI25" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="AJ25" s="21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AK25" s="21" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="AL25" s="21"/>
       <c r="AM25" s="21"/>
       <c r="AN25" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU25" s="27" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="AU25" s="23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>41</v>
@@ -3270,10 +3305,10 @@
       <c r="D26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="28">
+      <c r="E26" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="11">
         <v>46027</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -3286,7 +3321,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3314,7 +3349,7 @@
       <c r="AF26" s="26"/>
       <c r="AG26" s="26"/>
       <c r="AH26" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI26" s="20" t="s">
         <v>53</v>
@@ -3328,15 +3363,15 @@
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
       <c r="AN26" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU26" s="23" t="s">
-        <v>134</v>
+        <v>146</v>
+      </c>
+      <c r="AU26" s="27" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>41</v>
@@ -3347,10 +3382,10 @@
       <c r="D27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="28">
         <v>46027</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -3363,7 +3398,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3405,15 +3440,15 @@
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
       <c r="AN27" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU27" s="27" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="AU27" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>41</v>
@@ -3424,10 +3459,10 @@
       <c r="D28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="28">
+      <c r="E28" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="11">
         <v>46027</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -3440,7 +3475,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3482,15 +3517,15 @@
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU28" s="23" t="s">
-        <v>137</v>
+        <v>153</v>
+      </c>
+      <c r="AU28" s="27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>41</v>
@@ -3501,10 +3536,10 @@
       <c r="D29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="E29" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="28">
         <v>46027</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -3517,7 +3552,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3545,7 +3580,7 @@
       <c r="AF29" s="26"/>
       <c r="AG29" s="26"/>
       <c r="AH29" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI29" s="20" t="s">
         <v>53</v>
@@ -3559,15 +3594,15 @@
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU29" s="27" t="s">
-        <v>142</v>
+        <v>157</v>
+      </c>
+      <c r="AU29" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>41</v>
@@ -3578,10 +3613,10 @@
       <c r="D30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="28">
+      <c r="E30" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="11">
         <v>46027</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -3594,7 +3629,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3622,7 +3657,7 @@
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
       <c r="AH30" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI30" s="20" t="s">
         <v>53</v>
@@ -3636,15 +3671,15 @@
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU30" s="23" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="AU30" s="27" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>41</v>
@@ -3655,10 +3690,10 @@
       <c r="D31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="28">
         <v>46027</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -3671,7 +3706,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3713,15 +3748,15 @@
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU31" s="27" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="AU31" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>41</v>
@@ -3732,10 +3767,10 @@
       <c r="D32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="28">
+      <c r="E32" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="11">
         <v>46027</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -3748,7 +3783,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3790,15 +3825,15 @@
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU32" s="23" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="AU32" s="27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>41</v>
@@ -3809,10 +3844,10 @@
       <c r="D33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="28">
         <v>46027</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3825,7 +3860,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3853,7 +3888,7 @@
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
       <c r="AH33" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI33" s="20" t="s">
         <v>53</v>
@@ -3867,15 +3902,15 @@
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU33" s="27" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="AU33" s="23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>41</v>
@@ -3886,10 +3921,10 @@
       <c r="D34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="28">
+      <c r="E34" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="11">
         <v>46027</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -3902,7 +3937,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3930,7 +3965,7 @@
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI34" s="20" t="s">
         <v>53</v>
@@ -3944,15 +3979,15 @@
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU34" s="23" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="AU34" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>41</v>
@@ -3963,10 +3998,10 @@
       <c r="D35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="11">
+      <c r="E35" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="28">
         <v>46027</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -3979,7 +4014,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4021,15 +4056,15 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU35" s="27" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="AU35" s="23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>41</v>
@@ -4040,10 +4075,10 @@
       <c r="D36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" s="28">
+      <c r="E36" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="11">
         <v>46027</v>
       </c>
       <c r="I36" s="12" t="s">
@@ -4056,7 +4091,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4098,15 +4133,15 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU36" s="23" t="s">
-        <v>166</v>
+        <v>179</v>
+      </c>
+      <c r="AU36" s="27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>41</v>
@@ -4117,10 +4152,10 @@
       <c r="D37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="28">
         <v>46027</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -4133,7 +4168,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -4161,7 +4196,7 @@
       <c r="AF37" s="26"/>
       <c r="AG37" s="26"/>
       <c r="AH37" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI37" s="20" t="s">
         <v>53</v>
@@ -4175,15 +4210,15 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU37" s="27" t="s">
-        <v>169</v>
+        <v>182</v>
+      </c>
+      <c r="AU37" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>41</v>
@@ -4194,10 +4229,10 @@
       <c r="D38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="28">
+      <c r="E38" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="11">
         <v>46027</v>
       </c>
       <c r="I38" s="12" t="s">
@@ -4210,7 +4245,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4238,7 +4273,7 @@
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
       <c r="AH38" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI38" s="20" t="s">
         <v>53</v>
@@ -4252,15 +4287,15 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU38" s="23" t="s">
-        <v>172</v>
+        <v>185</v>
+      </c>
+      <c r="AU38" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>41</v>
@@ -4271,10 +4306,10 @@
       <c r="D39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E39" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="28">
         <v>46027</v>
       </c>
       <c r="I39" s="12" t="s">
@@ -4287,7 +4322,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -4329,15 +4364,15 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
       <c r="AN39" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU39" s="27" t="s">
-        <v>175</v>
+        <v>188</v>
+      </c>
+      <c r="AU39" s="23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>41</v>
@@ -4348,10 +4383,10 @@
       <c r="D40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="28">
+      <c r="E40" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="11">
         <v>46027</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -4364,7 +4399,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -4406,15 +4441,15 @@
       <c r="AL40" s="21"/>
       <c r="AM40" s="21"/>
       <c r="AN40" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU40" s="23" t="s">
-        <v>178</v>
+        <v>191</v>
+      </c>
+      <c r="AU40" s="27" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>41</v>
@@ -4425,10 +4460,10 @@
       <c r="D41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="11">
+      <c r="E41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="28">
         <v>46027</v>
       </c>
       <c r="I41" s="12" t="s">
@@ -4441,18 +4476,18 @@
         <v>46</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
       <c r="W41" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X41" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="X41" s="17"/>
       <c r="Y41" s="17" t="s">
         <v>49</v>
       </c>
@@ -4461,15 +4496,15 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="18" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="AE41" s="18" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
       <c r="AH41" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI41" s="20" t="s">
         <v>53</v>
@@ -4480,89 +4515,12 @@
       <c r="AK41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="31"/>
       <c r="AN41" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="AU41" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="28">
-        <v>46027</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE42" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI42" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ42" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK42" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU42" s="23" t="s">
+      <c r="AU41" s="23" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5332,4 +5290,185 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA596D1-0F1F-4D29-BB42-43B68BBC2AFC}">
+  <dimension ref="A2:AU3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="35">
+        <v>46027</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="28">
+        <v>46027</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU3" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/DATA/RESTD AllState.xlsx
+++ b/tests/DATA/RESTD AllState.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A588CC4-1C78-4BA5-B280-1CF39D2E672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7112E-BE3C-4526-958C-F997A1B4F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESDT" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -988,33 +988,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,9 +1268,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU41"/>
+  <dimension ref="A1:AU40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3294,7 +3269,7 @@
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>41</v>
@@ -3305,10 +3280,10 @@
       <c r="D26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="28">
         <v>46027</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -3321,7 +3296,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3363,15 +3338,15 @@
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
       <c r="AN26" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU26" s="27" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="AU26" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>41</v>
@@ -3382,10 +3357,10 @@
       <c r="D27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="28">
+      <c r="E27" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="11">
         <v>46027</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -3398,7 +3373,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3440,15 +3415,15 @@
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
       <c r="AN27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU27" s="23" t="s">
-        <v>137</v>
+        <v>153</v>
+      </c>
+      <c r="AU27" s="27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>41</v>
@@ -3459,10 +3434,10 @@
       <c r="D28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="28">
         <v>46027</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -3475,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3503,7 +3478,7 @@
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
       <c r="AH28" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI28" s="20" t="s">
         <v>53</v>
@@ -3517,15 +3492,15 @@
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU28" s="27" t="s">
-        <v>142</v>
+        <v>157</v>
+      </c>
+      <c r="AU28" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>41</v>
@@ -3536,10 +3511,10 @@
       <c r="D29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="28">
+      <c r="E29" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="11">
         <v>46027</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -3552,7 +3527,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3580,7 +3555,7 @@
       <c r="AF29" s="26"/>
       <c r="AG29" s="26"/>
       <c r="AH29" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI29" s="20" t="s">
         <v>53</v>
@@ -3594,15 +3569,15 @@
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU29" s="23" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="AU29" s="27" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>41</v>
@@ -3613,10 +3588,10 @@
       <c r="D30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="E30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="28">
         <v>46027</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -3629,7 +3604,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3671,15 +3646,15 @@
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU30" s="27" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="AU30" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>41</v>
@@ -3690,10 +3665,10 @@
       <c r="D31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="28">
+      <c r="E31" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="11">
         <v>46027</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -3706,7 +3681,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3748,15 +3723,15 @@
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU31" s="23" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="AU31" s="27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>41</v>
@@ -3767,10 +3742,10 @@
       <c r="D32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="28">
         <v>46027</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -3783,7 +3758,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3811,7 +3786,7 @@
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
       <c r="AH32" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI32" s="20" t="s">
         <v>53</v>
@@ -3825,15 +3800,15 @@
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU32" s="27" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="AU32" s="23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>41</v>
@@ -3844,10 +3819,10 @@
       <c r="D33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="28">
+      <c r="E33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="11">
         <v>46027</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3860,7 +3835,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3888,7 +3863,7 @@
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
       <c r="AH33" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI33" s="20" t="s">
         <v>53</v>
@@ -3902,15 +3877,15 @@
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU33" s="23" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="AU33" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>41</v>
@@ -3921,10 +3896,10 @@
       <c r="D34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="E34" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="28">
         <v>46027</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -3937,7 +3912,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3979,15 +3954,15 @@
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU34" s="27" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="AU34" s="23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>41</v>
@@ -3998,10 +3973,10 @@
       <c r="D35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="28">
+      <c r="E35" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="11">
         <v>46027</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -4014,7 +3989,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4056,15 +4031,15 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU35" s="23" t="s">
-        <v>166</v>
+        <v>179</v>
+      </c>
+      <c r="AU35" s="27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>41</v>
@@ -4075,10 +4050,10 @@
       <c r="D36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="E36" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="28">
         <v>46027</v>
       </c>
       <c r="I36" s="12" t="s">
@@ -4091,7 +4066,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4119,7 +4094,7 @@
       <c r="AF36" s="26"/>
       <c r="AG36" s="26"/>
       <c r="AH36" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI36" s="20" t="s">
         <v>53</v>
@@ -4133,15 +4108,15 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU36" s="27" t="s">
-        <v>169</v>
+        <v>182</v>
+      </c>
+      <c r="AU36" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>41</v>
@@ -4152,10 +4127,10 @@
       <c r="D37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="28">
+      <c r="E37" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="11">
         <v>46027</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -4168,7 +4143,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -4196,7 +4171,7 @@
       <c r="AF37" s="26"/>
       <c r="AG37" s="26"/>
       <c r="AH37" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI37" s="20" t="s">
         <v>53</v>
@@ -4210,15 +4185,15 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU37" s="23" t="s">
-        <v>172</v>
+        <v>185</v>
+      </c>
+      <c r="AU37" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>41</v>
@@ -4229,10 +4204,10 @@
       <c r="D38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="11">
+      <c r="E38" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="28">
         <v>46027</v>
       </c>
       <c r="I38" s="12" t="s">
@@ -4245,7 +4220,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4287,15 +4262,15 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU38" s="27" t="s">
-        <v>175</v>
+        <v>188</v>
+      </c>
+      <c r="AU38" s="23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>41</v>
@@ -4306,10 +4281,10 @@
       <c r="D39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="28">
+      <c r="E39" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="11">
         <v>46027</v>
       </c>
       <c r="I39" s="12" t="s">
@@ -4322,7 +4297,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -4364,15 +4339,15 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
       <c r="AN39" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU39" s="23" t="s">
-        <v>178</v>
+        <v>191</v>
+      </c>
+      <c r="AU39" s="27" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>41</v>
@@ -4383,10 +4358,10 @@
       <c r="D40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="E40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="28">
         <v>46027</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -4399,18 +4374,18 @@
         <v>46</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
       <c r="W40" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X40" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="X40" s="17"/>
       <c r="Y40" s="17" t="s">
         <v>49</v>
       </c>
@@ -4419,15 +4394,15 @@
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="18" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="AE40" s="18" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
       <c r="AH40" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI40" s="20" t="s">
         <v>53</v>
@@ -4438,94 +4413,18 @@
       <c r="AK40" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
       <c r="AN40" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="AU40" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="28">
-        <v>46027</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE41" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI41" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ41" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK41" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU41" s="23" t="s">
+      <c r="AU40" s="23" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5294,100 +5193,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA596D1-0F1F-4D29-BB42-43B68BBC2AFC}">
-  <dimension ref="A2:AU3"/>
+  <dimension ref="A2:AU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="11">
         <v>46027</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32" t="s">
+      <c r="J2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="38" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="40" t="s">
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="41" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="42" t="s">
+      <c r="AK2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43" t="s">
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="33" t="s">
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="27" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5468,6 +5373,88 @@
         <v>106</v>
       </c>
     </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="11">
+        <v>46027</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU26" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/DATA/RESTD AllState.xlsx
+++ b/tests/DATA/RESTD AllState.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7112E-BE3C-4526-958C-F997A1B4F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E87C7-4445-4A68-97BC-1CCC179DE365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU40"/>
+  <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>41</v>
@@ -3511,10 +3511,10 @@
       <c r="D29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="E29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="28">
         <v>46027</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -3527,7 +3527,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3569,15 +3569,15 @@
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU29" s="27" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="AU29" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>41</v>
@@ -3588,10 +3588,10 @@
       <c r="D30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="28">
+      <c r="E30" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="11">
         <v>46027</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -3604,7 +3604,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3646,15 +3646,15 @@
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU30" s="23" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="AU30" s="27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>41</v>
@@ -3665,10 +3665,10 @@
       <c r="D31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="28">
         <v>46027</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -3681,7 +3681,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3709,7 +3709,7 @@
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
       <c r="AH31" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI31" s="20" t="s">
         <v>53</v>
@@ -3723,15 +3723,15 @@
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU31" s="27" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="AU31" s="23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>41</v>
@@ -3742,10 +3742,10 @@
       <c r="D32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="28">
+      <c r="E32" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="11">
         <v>46027</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -3758,7 +3758,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3786,7 +3786,7 @@
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
       <c r="AH32" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI32" s="20" t="s">
         <v>53</v>
@@ -3800,15 +3800,15 @@
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU32" s="23" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="AU32" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>41</v>
@@ -3819,10 +3819,10 @@
       <c r="D33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="28">
         <v>46027</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3835,7 +3835,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3877,15 +3877,15 @@
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU33" s="27" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="AU33" s="23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>41</v>
@@ -3896,10 +3896,10 @@
       <c r="D34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="28">
+      <c r="E34" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="11">
         <v>46027</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -3912,7 +3912,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3954,15 +3954,15 @@
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU34" s="23" t="s">
-        <v>166</v>
+        <v>179</v>
+      </c>
+      <c r="AU34" s="27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>41</v>
@@ -3973,10 +3973,10 @@
       <c r="D35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="11">
+      <c r="E35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="28">
         <v>46027</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -3989,7 +3989,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4017,7 +4017,7 @@
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
       <c r="AH35" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI35" s="20" t="s">
         <v>53</v>
@@ -4031,15 +4031,15 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU35" s="27" t="s">
-        <v>169</v>
+        <v>182</v>
+      </c>
+      <c r="AU35" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>41</v>
@@ -4050,10 +4050,10 @@
       <c r="D36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="28">
+      <c r="E36" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="11">
         <v>46027</v>
       </c>
       <c r="I36" s="12" t="s">
@@ -4066,7 +4066,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4094,7 +4094,7 @@
       <c r="AF36" s="26"/>
       <c r="AG36" s="26"/>
       <c r="AH36" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI36" s="20" t="s">
         <v>53</v>
@@ -4108,15 +4108,15 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU36" s="23" t="s">
-        <v>172</v>
+        <v>185</v>
+      </c>
+      <c r="AU36" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>41</v>
@@ -4127,10 +4127,10 @@
       <c r="D37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="28">
         <v>46027</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -4143,7 +4143,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -4185,15 +4185,15 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU37" s="27" t="s">
-        <v>175</v>
+        <v>188</v>
+      </c>
+      <c r="AU37" s="23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>41</v>
@@ -4204,10 +4204,10 @@
       <c r="D38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="28">
+      <c r="E38" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="11">
         <v>46027</v>
       </c>
       <c r="I38" s="12" t="s">
@@ -4220,7 +4220,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4262,15 +4262,15 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU38" s="23" t="s">
-        <v>178</v>
+        <v>191</v>
+      </c>
+      <c r="AU38" s="27" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>41</v>
@@ -4281,10 +4281,10 @@
       <c r="D39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="28">
         <v>46027</v>
       </c>
       <c r="I39" s="12" t="s">
@@ -4297,18 +4297,18 @@
         <v>46</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
       <c r="W39" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X39" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="X39" s="17"/>
       <c r="Y39" s="17" t="s">
         <v>49</v>
       </c>
@@ -4317,15 +4317,15 @@
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="18" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="AE39" s="18" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="AF39" s="26"/>
       <c r="AG39" s="26"/>
       <c r="AH39" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI39" s="20" t="s">
         <v>53</v>
@@ -4336,89 +4336,12 @@
       <c r="AK39" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
       <c r="AN39" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="AU39" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="28">
-        <v>46027</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE40" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI40" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ40" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK40" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU40" s="23" t="s">
+      <c r="AU39" s="23" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5193,10 +5116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA596D1-0F1F-4D29-BB42-43B68BBC2AFC}">
-  <dimension ref="A2:AU26"/>
+  <dimension ref="A2:AU29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5373,11 +5296,6 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>26</v>
-      </c>
-    </row>
     <row r="26" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>144</v>
@@ -5455,6 +5373,83 @@
         <v>147</v>
       </c>
     </row>
+    <row r="29" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="11">
+        <v>46027</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU29" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/DATA/RESTD AllState.xlsx
+++ b/tests/DATA/RESTD AllState.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E87C7-4445-4A68-97BC-1CCC179DE365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A797CC7-5F49-4752-B314-2678F3A56B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU39"/>
+  <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>41</v>
@@ -3126,10 +3126,10 @@
       <c r="D24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="E24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="28">
         <v>46027</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -3142,7 +3142,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -3170,29 +3170,29 @@
       <c r="AF24" s="26"/>
       <c r="AG24" s="26"/>
       <c r="AH24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI24" s="29" t="s">
-        <v>138</v>
+        <v>86</v>
+      </c>
+      <c r="AI24" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="AJ24" s="21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AK24" s="21" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="AL24" s="21"/>
       <c r="AM24" s="21"/>
       <c r="AN24" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU24" s="27" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="AU24" s="23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>41</v>
@@ -3204,7 +3204,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F25" s="28">
         <v>46027</v>
@@ -3219,7 +3219,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3247,7 +3247,7 @@
       <c r="AF25" s="26"/>
       <c r="AG25" s="26"/>
       <c r="AH25" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI25" s="20" t="s">
         <v>53</v>
@@ -3261,15 +3261,15 @@
       <c r="AL25" s="21"/>
       <c r="AM25" s="21"/>
       <c r="AN25" s="22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AU25" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>41</v>
@@ -3280,10 +3280,10 @@
       <c r="D26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="28">
+      <c r="E26" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="11">
         <v>46027</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -3296,7 +3296,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3338,15 +3338,15 @@
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
       <c r="AN26" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU26" s="23" t="s">
-        <v>137</v>
+        <v>153</v>
+      </c>
+      <c r="AU26" s="27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>41</v>
@@ -3357,10 +3357,10 @@
       <c r="D27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="28">
         <v>46027</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -3373,7 +3373,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3401,7 +3401,7 @@
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
       <c r="AH27" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI27" s="20" t="s">
         <v>53</v>
@@ -3415,15 +3415,15 @@
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
       <c r="AN27" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU27" s="27" t="s">
-        <v>142</v>
+        <v>157</v>
+      </c>
+      <c r="AU27" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>41</v>
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F28" s="28">
         <v>46027</v>
@@ -3450,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3478,7 +3478,7 @@
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
       <c r="AH28" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI28" s="20" t="s">
         <v>53</v>
@@ -3492,15 +3492,15 @@
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AU28" s="23" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>41</v>
@@ -3511,10 +3511,10 @@
       <c r="D29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="28">
+      <c r="E29" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="11">
         <v>46027</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -3527,7 +3527,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3569,15 +3569,15 @@
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU29" s="23" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="AU29" s="27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>41</v>
@@ -3588,10 +3588,10 @@
       <c r="D30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="E30" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="28">
         <v>46027</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -3604,7 +3604,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3632,7 +3632,7 @@
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
       <c r="AH30" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI30" s="20" t="s">
         <v>53</v>
@@ -3646,15 +3646,15 @@
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU30" s="27" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="AU30" s="23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>41</v>
@@ -3665,10 +3665,10 @@
       <c r="D31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="28">
+      <c r="E31" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="11">
         <v>46027</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -3681,7 +3681,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3709,7 +3709,7 @@
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
       <c r="AH31" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI31" s="20" t="s">
         <v>53</v>
@@ -3723,15 +3723,15 @@
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU31" s="23" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="AU31" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>41</v>
@@ -3742,10 +3742,10 @@
       <c r="D32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="28">
         <v>46027</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -3758,7 +3758,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3800,15 +3800,15 @@
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU32" s="27" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="AU32" s="23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>41</v>
@@ -3819,10 +3819,10 @@
       <c r="D33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="28">
+      <c r="E33" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="11">
         <v>46027</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3835,7 +3835,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3877,15 +3877,15 @@
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU33" s="23" t="s">
-        <v>166</v>
+        <v>179</v>
+      </c>
+      <c r="AU33" s="27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>41</v>
@@ -3896,10 +3896,10 @@
       <c r="D34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="E34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="28">
         <v>46027</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -3912,7 +3912,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3940,7 +3940,7 @@
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI34" s="20" t="s">
         <v>53</v>
@@ -3954,15 +3954,15 @@
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU34" s="27" t="s">
-        <v>169</v>
+        <v>182</v>
+      </c>
+      <c r="AU34" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>41</v>
@@ -3974,7 +3974,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F35" s="28">
         <v>46027</v>
@@ -3989,7 +3989,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4017,7 +4017,7 @@
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
       <c r="AH35" s="20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI35" s="20" t="s">
         <v>53</v>
@@ -4031,15 +4031,15 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="22" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AU35" s="23" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>41</v>
@@ -4051,7 +4051,7 @@
         <v>43</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F36" s="11">
         <v>46027</v>
@@ -4066,7 +4066,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4108,15 +4108,15 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="22" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AU36" s="27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>41</v>
@@ -4128,7 +4128,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F37" s="28">
         <v>46027</v>
@@ -4143,18 +4143,18 @@
         <v>46</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
       <c r="W37" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X37" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="X37" s="17"/>
       <c r="Y37" s="17" t="s">
         <v>49</v>
       </c>
@@ -4163,15 +4163,15 @@
       <c r="AB37" s="17"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="18" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="AE37" s="18" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="AF37" s="26"/>
       <c r="AG37" s="26"/>
       <c r="AH37" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AI37" s="20" t="s">
         <v>53</v>
@@ -4182,166 +4182,12 @@
       <c r="AK37" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
       <c r="AN37" s="22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AU37" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="11">
-        <v>46027</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P38" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE38" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI38" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ38" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK38" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL38" s="21"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU38" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="28">
-        <v>46027</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P39" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE39" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI39" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ39" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK39" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU39" s="23" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5116,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA596D1-0F1F-4D29-BB42-43B68BBC2AFC}">
-  <dimension ref="A2:AU29"/>
+  <dimension ref="A2:AU36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5296,6 +5142,83 @@
         <v>106</v>
       </c>
     </row>
+    <row r="24" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="11">
+        <v>46027</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI24" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK24" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU24" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="26" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>144</v>
@@ -5450,6 +5373,83 @@
         <v>149</v>
       </c>
     </row>
+    <row r="36" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="11">
+        <v>46027</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE36" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU36" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
